--- a/Docs/VGP.xlsx
+++ b/Docs/VGP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>Кукуруза</t>
   </si>
@@ -61,6 +61,45 @@
   </si>
   <si>
     <t>Кукурузный Хлеб</t>
+  </si>
+  <si>
+    <t>Хлеб с сыром</t>
+  </si>
+  <si>
+    <t>Чисбургер</t>
+  </si>
+  <si>
+    <t>Тако</t>
+  </si>
+  <si>
+    <t>Сыр</t>
+  </si>
+  <si>
+    <t>Пица</t>
+  </si>
+  <si>
+    <t>Фрукты</t>
+  </si>
+  <si>
+    <t>Пирог</t>
+  </si>
+  <si>
+    <t>Сахар</t>
+  </si>
+  <si>
+    <t>Кекс</t>
+  </si>
+  <si>
+    <t>Печенье</t>
+  </si>
+  <si>
+    <t>Шоколад</t>
+  </si>
+  <si>
+    <t>Яйцо</t>
+  </si>
+  <si>
+    <t>Рулет</t>
   </si>
 </sst>
 </file>
@@ -411,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,395 +525,979 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <f>E11/B11</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <f>E12*$E$9</f>
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
-        <f>E13*$C$6</f>
-        <v>0.4</v>
+      <c r="E14" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E17/B17</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f>E18*$E$15</f>
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <f>E19*$C$6</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
         <v>0.7</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <f>E15*$C$12</f>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <f>E21*$C$18</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="D16" s="1" t="s">
+    <row r="22" spans="1:6">
+      <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <f>E16*$C$5</f>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <f>E22*$C$5</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="D17" s="3" t="s">
+    <row r="23" spans="1:6">
+      <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
-        <f>E15*$E$13</f>
+      <c r="E23" s="1">
+        <f>E21*$E$19</f>
         <v>16</v>
       </c>
-      <c r="F17" s="1">
-        <f>E17*$C$6</f>
+      <c r="F23" s="1">
+        <f>E23*$C$6</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <f>E19/B19</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <f>E20*$E$13</f>
-        <v>20</v>
-      </c>
-      <c r="F21" s="1">
-        <f>E21*$C$6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <f>E25/B25</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="D27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <f>E26*$E$19</f>
+        <v>20</v>
+      </c>
+      <c r="F27" s="1">
+        <f>E27*$C$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
         <v>0.9</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="1">
-        <f>E23/B23</f>
+      <c r="E32" s="1">
+        <f>E29/B29</f>
         <v>10</v>
       </c>
-      <c r="F26" s="1">
-        <f>E26*C3</f>
+      <c r="F32" s="1">
+        <f>E32*C3</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="D27" s="1" t="s">
+    <row r="33" spans="1:6">
+      <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="1">
-        <f>E24/B23</f>
+      <c r="E33" s="1">
+        <f>E30/B29</f>
         <v>10</v>
       </c>
-      <c r="F27" s="1">
-        <f>E27*C4</f>
+      <c r="F33" s="1">
+        <f>E33*C4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="F28" s="4">
-        <f>SUM(F26:F27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
+    <row r="34" spans="1:6">
+      <c r="F34" s="4">
+        <f>SUM(F32:F33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E36" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="D31" s="1" t="s">
+    <row r="37" spans="1:6">
+      <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E37" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>0.6</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="1">
-        <f>E30/B30</f>
+      <c r="E39" s="1">
+        <f>E36/B36</f>
         <v>8</v>
       </c>
-      <c r="F33" s="1">
-        <f>E33*C3</f>
+      <c r="F39" s="1">
+        <f>E39*C3</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="D34" s="1" t="s">
+    <row r="40" spans="1:6">
+      <c r="D40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="1">
-        <f>E31/B30</f>
+      <c r="E40" s="1">
+        <f>E37/B36</f>
         <v>5</v>
       </c>
-      <c r="F34" s="1">
-        <f>E34*C4</f>
+      <c r="F40" s="1">
+        <f>E40*C4</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="F35" s="1">
-        <f>SUM(F33:F34)</f>
+    <row r="41" spans="1:6">
+      <c r="F41" s="1">
+        <f>SUM(F39:F40)</f>
         <v>0.65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1">
-        <f>E37/B37</f>
-        <v>3</v>
-      </c>
-      <c r="F38" s="1">
-        <f>E38*C5</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="D39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <f>E38*$E$9</f>
-        <v>6</v>
-      </c>
-      <c r="F39" s="1">
-        <f>E39*$C$6</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
+        <f>E43/B43</f>
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <f>E44*C5</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="D45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <f>E44*$E$15</f>
+        <v>6</v>
+      </c>
+      <c r="F45" s="1">
+        <f>E45*$C$6</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <f>E42/B42</f>
-        <v>7.5</v>
-      </c>
-      <c r="F43" s="1">
-        <f>E43*C5</f>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <f>E47/B47</f>
+        <v>6</v>
+      </c>
+      <c r="F48" s="1">
+        <f>E48*$C$5</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="D49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <f>E48*$E$15</f>
+        <v>12</v>
+      </c>
+      <c r="F49" s="1">
+        <f>E49*$C$6</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="D52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1">
+        <f>E51/B51</f>
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <f>E54*C8</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1">
+        <f>E52/B51</f>
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <f>E55*C7</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="F56" s="1">
+        <f>SUM(F54:F55)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="D44" s="3" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1">
+        <f>E58*$C$8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="D59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <f>E59*$C$7</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1">
+        <f>E60*$C$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="1">
+        <f>E58/$B$58</f>
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <f>E62*$C$8</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="D63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="1">
+        <f>E59/$B$58</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <f>E63*$C$7</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1">
+        <f>E60/$B$58</f>
+        <v>5</v>
+      </c>
+      <c r="F64" s="1">
+        <f>E64*$C$3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="F65" s="1">
+        <f>SUM(F62:F64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="D66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="1">
-        <f>E43*$E$9</f>
+      <c r="E66" s="1">
+        <f>E62*$E$45</f>
+        <v>12</v>
+      </c>
+      <c r="F66" s="1">
+        <f>E66*$C$6</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>30</v>
+      </c>
+      <c r="F69" s="1">
+        <f>E69*$C$5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="D70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <f>E70*$C$7</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1">
         <v>15</v>
       </c>
-      <c r="F44" s="1">
-        <f>E44*$C$6</f>
+      <c r="F71" s="1">
+        <f>E71*$C$3</f>
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="F72" s="1">
+        <f>SUM(F69:F71)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <f>E69/B69</f>
+        <v>6</v>
+      </c>
+      <c r="F74" s="1">
+        <f>E74*$C$5</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="D75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="1">
+        <f>E70/B69</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <f>E75*$C$7</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1">
+        <f>E71/B69</f>
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <f>E76*$C$3</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="F77" s="1">
+        <f>SUM(F74:F76)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1">
+        <f>E79*$C$5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="D80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="1">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1">
+        <f>E80*$C$7</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1">
+        <f>E81*$C$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="F82" s="1">
+        <f>SUM(F79:F81)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1">
+        <f>0.8*B84</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1">
+        <v>18</v>
+      </c>
+      <c r="F84" s="1">
+        <f>E84*$C$5</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="D85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="1">
+        <v>4</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="D86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="1">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1">
+        <f>E86*$C$10</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="F87" s="1">
+        <f>SUM(F84:F86)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="1">
+        <v>6</v>
+      </c>
+      <c r="C89" s="1">
+        <f>0.6*B89</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="1">
+        <v>24</v>
+      </c>
+      <c r="F89" s="1">
+        <f>E89*$C$5</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="D90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="1">
+        <v>10</v>
+      </c>
+      <c r="F90" s="1">
+        <f>E90*$C$11</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="D91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="1">
+        <v>15</v>
+      </c>
+      <c r="F91" s="1">
+        <f>E91*$C$10</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="F92" s="1">
+        <f>SUM(F89:F91)</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="1">
+        <v>6</v>
+      </c>
+      <c r="C94" s="1">
+        <f>0.5*B94</f>
+        <v>3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="1">
+        <v>15</v>
+      </c>
+      <c r="F94" s="1">
+        <f>E94*0.1</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="D95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="1">
+        <v>8</v>
+      </c>
+      <c r="F95" s="1">
+        <f>E95*$C$11</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="D96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <f>E96*0.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="D97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1">
+        <f>E97*$C$5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="F98" s="1">
+        <f>SUM(F94:F97)</f>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1">
+        <f>0.5*B100</f>
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="1">
+        <v>20</v>
+      </c>
+      <c r="F100" s="1">
+        <f>E100*$C$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="D101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="1">
+        <v>8</v>
+      </c>
+      <c r="F101" s="1">
+        <f>E101*$C$11</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="F102" s="1">
+        <f>SUM(F100:F101)</f>
+        <v>2.08</v>
       </c>
     </row>
   </sheetData>
